--- a/nigeria_customers_income_diff.xlsx
+++ b/nigeria_customers_income_diff.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E355DA-3E05-4F4E-8ED7-B3ACFE0C92D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9F74B-692F-488F-910B-F8ADEBADD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="492" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="emeroke" sheetId="2" r:id="rId2"/>
     <sheet name="opu" sheetId="3" r:id="rId3"/>
     <sheet name="balep" sheetId="4" r:id="rId4"/>
+    <sheet name="bendeghe-afi" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$I$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">balep!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'bendeghe-afi'!$A$1:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">emeroke!$A$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">opu!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="627">
   <si>
     <t>renewvia_id</t>
   </si>
@@ -1839,6 +1844,90 @@
   </si>
   <si>
     <t>nno steady light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything is good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">business dropped due to health challenge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not frequent in the village </t>
+  </si>
+  <si>
+    <t xml:space="preserve">my type of fishing business is okay </t>
+  </si>
+  <si>
+    <t>business has dropped due to husbands death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no regular fishing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piracy challenge </t>
+  </si>
+  <si>
+    <t>the for user is dead and the meter is assigned to new customer ust</t>
+  </si>
+  <si>
+    <t>my income is just the way it used to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my income drops as a result of bad fishing season </t>
+  </si>
+  <si>
+    <t xml:space="preserve">my income is now better than before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">my income is not steady because fishing business is not as booming as before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">my income is normal but not always around </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad fishing business has dropped my income </t>
+  </si>
+  <si>
+    <t>just normal income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything is normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">still no comment </t>
+  </si>
+  <si>
+    <t>business is not going well like when there's was light</t>
+  </si>
+  <si>
+    <t>drop in business because of no steady light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">things are okay we thank God </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I give God the glory for everything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">he's doing greater than before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doing a bit better than before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">business is on the increase though always travelling </t>
+  </si>
+  <si>
+    <t>poor sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doing better </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad engine </t>
+  </si>
+  <si>
+    <t>no comment</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2117,6 +2206,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7660,7 +7754,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7761,7 +7855,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -7793,7 +7887,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7825,7 +7919,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7985,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -8433,7 +8527,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -8465,7 +8559,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -8497,7 +8591,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -8593,7 +8687,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -9105,7 +9199,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>552</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -9168,7 +9262,9 @@
       <c r="I47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
@@ -9326,7 +9422,9 @@
       <c r="I52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="10"/>
+      <c r="J52" s="10" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
@@ -9356,7 +9454,9 @@
       <c r="I53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="10" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
@@ -9386,7 +9486,9 @@
       <c r="I54" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
@@ -9416,7 +9518,9 @@
       <c r="I55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="10" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
@@ -9510,7 +9614,9 @@
       <c r="I58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
@@ -9540,7 +9646,9 @@
       <c r="I59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
@@ -9666,7 +9774,9 @@
       <c r="I63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="10"/>
+      <c r="J63" s="10" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
@@ -9696,7 +9806,9 @@
       <c r="I64" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="10" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
@@ -9790,7 +9902,9 @@
       <c r="I67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="10" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
@@ -9852,7 +9966,9 @@
       <c r="I69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="10" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
@@ -9882,7 +9998,9 @@
       <c r="I70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="10" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
@@ -10009,7 +10127,7 @@
         <v>14</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -10041,7 +10159,7 @@
         <v>14</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -10073,7 +10191,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -10265,7 +10383,7 @@
         <v>14</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -10329,7 +10447,7 @@
         <v>14</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -10393,7 +10511,7 @@
         <v>14</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -10425,10 +10543,11 @@
         <v>14</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J87" xr:uid="{1601D58E-0451-48AE-856A-3386B7565A6B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10438,7 +10557,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10911,6 +11030,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D33" xr:uid="{952F4FF5-09E5-42EE-BDAA-B8FD73470458}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10919,8 +11039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498ECEBF-6988-4F64-9CC4-E587CAE563AE}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11514,6 +11634,1082 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F29" xr:uid="{498ECEBF-6988-4F64-9CC4-E587CAE563AE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D952AEDB-D156-410B-B128-F6ED8DF7F0A1}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29">
+        <v>540002</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="23">
+        <v>68000</v>
+      </c>
+      <c r="D2" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="23">
+        <v>-48000</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>540006</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24">
+        <v>56000</v>
+      </c>
+      <c r="D3" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="24">
+        <v>-26000</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="29">
+        <v>540010</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="23">
+        <v>40000</v>
+      </c>
+      <c r="D4" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="23">
+        <v>-10000</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>540013</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24">
+        <v>95000</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="24">
+        <v>-75000</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>540019</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23">
+        <v>60000</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="23">
+        <v>-50000</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>540023</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24">
+        <v>50000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>-20000</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>540035</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="23">
+        <v>29000</v>
+      </c>
+      <c r="D8" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="23">
+        <v>-9000</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>540044</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>35000</v>
+      </c>
+      <c r="E9" s="24">
+        <v>-5000</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
+        <v>540049</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="23">
+        <v>52000</v>
+      </c>
+      <c r="D10" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="23">
+        <v>-32000</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>540061</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24">
+        <v>34000</v>
+      </c>
+      <c r="D11" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="24">
+        <v>-4000</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="29">
+        <v>540064</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>90000</v>
+      </c>
+      <c r="D12" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="23">
+        <v>-70000</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>540065</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24">
+        <v>86000</v>
+      </c>
+      <c r="D13" s="24">
+        <v>15000</v>
+      </c>
+      <c r="E13" s="24">
+        <v>-71000</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="29">
+        <v>540068</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23">
+        <v>35000</v>
+      </c>
+      <c r="D14" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-15000</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>540073</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="24">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="24">
+        <v>-5000</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="29">
+        <v>540081</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23">
+        <v>200000</v>
+      </c>
+      <c r="D16" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E16" s="23">
+        <v>-170000</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>540094</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="24">
+        <v>35000</v>
+      </c>
+      <c r="D17" s="24">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="24">
+        <v>-20000</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="29">
+        <v>540111</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23">
+        <v>130000</v>
+      </c>
+      <c r="D18" s="23">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="23">
+        <v>-80000</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>540122</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="24">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-5000</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="29">
+        <v>540149</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23">
+        <v>52000</v>
+      </c>
+      <c r="D20" s="23">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="23">
+        <v>-37000</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>540151</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="24">
+        <v>80000</v>
+      </c>
+      <c r="D21" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="24">
+        <v>-60000</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="29">
+        <v>540152</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="23">
+        <v>80000</v>
+      </c>
+      <c r="D22" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="23">
+        <v>-60000</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="30">
+        <v>540167</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="24">
+        <v>60000</v>
+      </c>
+      <c r="D23" s="24">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="24">
+        <v>-50000</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="29">
+        <v>540170</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="23">
+        <v>35000</v>
+      </c>
+      <c r="D24" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="23">
+        <v>-25000</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
+        <v>540185</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="24">
+        <v>90000</v>
+      </c>
+      <c r="D25" s="24">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="24">
+        <v>-75000</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="29">
+        <v>540191</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40000</v>
+      </c>
+      <c r="D26" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="23">
+        <v>-20000</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="30">
+        <v>540197</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="24">
+        <v>50000</v>
+      </c>
+      <c r="D27" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="24">
+        <v>-30000</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="29">
+        <v>540198</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="23">
+        <v>50000</v>
+      </c>
+      <c r="D28" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="23">
+        <v>-20000</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="30">
+        <v>540201</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="24">
+        <v>95000</v>
+      </c>
+      <c r="D29" s="24">
+        <v>40000</v>
+      </c>
+      <c r="E29" s="24">
+        <v>-55000</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="29">
+        <v>540232</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="23">
+        <v>80000</v>
+      </c>
+      <c r="D30" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="23">
+        <v>-70000</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="30">
+        <v>540278</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="24">
+        <v>42000</v>
+      </c>
+      <c r="D31" s="24">
+        <v>40000</v>
+      </c>
+      <c r="E31" s="24">
+        <v>-2000</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="29">
+        <v>540283</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="23">
+        <v>120000</v>
+      </c>
+      <c r="D32" s="23">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="23">
+        <v>-115000</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="30">
+        <v>540286</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="24">
+        <v>33000</v>
+      </c>
+      <c r="D33" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="24">
+        <v>-13000</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J33" xr:uid="{D952AEDB-D156-410B-B128-F6ED8DF7F0A1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>